--- a/biology/Botanique/Phalaenopsis_finleyi/Phalaenopsis_finleyi.xlsx
+++ b/biology/Botanique/Phalaenopsis_finleyi/Phalaenopsis_finleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phalaenopsis finleyi est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Phalaenopsis. Il s'agit d'une espèce intégrée tardivement aux Phalaenopsis et qui appartenait initialement au genre Kingidium avant d'être reclassée temporairement dans le genre Doritis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaenopsis finleyi est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Phalaenopsis. Il s'agit d'une espèce intégrée tardivement aux Phalaenopsis et qui appartenait initialement au genre Kingidium avant d'être reclassée temporairement dans le genre Doritis.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette orchidée se trouve à l'état naturel en Thaïlande et au Vietnam.
 </t>
@@ -570,12 +586,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Kingidium minus Seidenf., Opera Bot. 95: 188 (1988). (basionyme)
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kingidium minus Seidenf., Opera Bot. 95: 188 (1988). (basionyme)
 Phalaenopsis minor (Seidenf.) Christenson, Phalaenopsis: 54 (2001), nom. illeg.
-Doritis minus (Seidenf.) T.Yukawa &amp; K.Kita, Acta Phytotax. Geobot. 56: 157 (2005).
-Variétés botaniques, horticoles et sous-espèces
-Hybrides primaires
+Doritis minus (Seidenf.) T.Yukawa &amp; K.Kita, Acta Phytotax. Geobot. 56: 157 (2005).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phalaenopsis_finleyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phalaenopsis_finleyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hybrides primaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Phalaenopsis Alyos	= Phal. schilleriana × Phal. finleyi (Alain Brochart, 2008)
 Phalaenopsis Calypso Musick = Phal. deliciosa × Phal. finleyi (F.&amp;M.Kaufmann, 2007)
 Phalaenopsis Donna's Delight = Phal. equestris × Phal. finleyi (Bill Tippit, 2005)
@@ -587,31 +642,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Phalaenopsis_finleyi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Phalaenopsis_finleyi</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hybrides secondaires(Descendance)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phalaenopsis Manydog (basionyme: x Phalaenidium) = Phal. Sogo Mini Dog × Phal. finleyi (Yaphon Orch, 2007)
